--- a/src/main/webapp/demoFileDownload/contestpaperImport_example.xlsx
+++ b/src/main/webapp/demoFileDownload/contestpaperImport_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\自己项目\学生在线考试系统\EXCEL表格格式\导入表格模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\自己项目\学生在线考试系统\EXCEL表格格式\导入表格模板\2020.3.08 修改模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156245A1-6D13-471C-B558-EF7E376A3621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED15A64C-0C8A-409B-BDB5-67D76AF09EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,22 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
-    <t>题目内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目分值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正确选项请在其末尾加英文*进行标记，多选题标记多个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ArrayList*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>答案1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>答案2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,18 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正确选项请在其末尾加英文*进行标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切记要将答案按照填空的顺序来排版，题目几个空对应几个答案。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在JAVA中，____、____、____类的对象可被用作堆栈或者队列。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>题号（必填）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,7 +176,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注：只能一次性导入一张试题</t>
+    <t>备注：只能一次性导入一张试题，请按照样例填写信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确选项请在其末尾加英文*进行标记                  （例如：选项1: LinkedList*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目分值（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目内容（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项1（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确选项请在其末尾加英文*进行标记，多选题标记多个(例如选项1和2：LinkedList*、ArrayList*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案1（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在JAVA中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>____、____、____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类的对象可被用作堆栈或者队列。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切记要将答案按照填空的顺序来排版，题目有几个填空则对应几个答案。（填空____由四个_组成，请按照要求填写信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案内容（必填）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,14 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -271,6 +287,24 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -304,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -321,20 +355,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,32 +656,32 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.1640625" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="7"/>
+    <col min="1" max="1" width="61.1640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>44</v>
+      <c r="A2" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -661,85 +698,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="7" customWidth="1"/>
-    <col min="4" max="11" width="14.25" style="7" customWidth="1"/>
-    <col min="12" max="12" width="20" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="13.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
+    <col min="4" max="11" width="14.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.58203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -753,85 +790,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0304320-1A3E-466B-8775-3EA11A8317F2}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="7" customWidth="1"/>
-    <col min="4" max="11" width="14.25" style="7" customWidth="1"/>
-    <col min="12" max="12" width="20" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="13.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
+    <col min="4" max="11" width="14.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -842,86 +879,86 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1E9783-0998-445C-9A59-17618987A2C4}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="7" customWidth="1"/>
-    <col min="4" max="11" width="14.25" style="7" customWidth="1"/>
-    <col min="12" max="12" width="20" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="13.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
+    <col min="4" max="11" width="14.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="122.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="6" t="s">
-        <v>40</v>
+      <c r="L2" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1204,20 +1241,6 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1230,102 +1253,106 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="13.08203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{014F8D63-FB64-4194-BE75-51A68BA17B1D}">
+      <formula1>"正确,错误"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75B778E-9D59-4931-AE0D-899F672BCABD}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="13.08203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1484,12 +1511,6 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
